--- a/src/asset/download/metode-newton-raphson.xlsx
+++ b/src/asset/download/metode-newton-raphson.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reyhan Haqiqi\Downloads\project-lecture-metnum\src\asset\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF8DEA9-04B6-4817-97A6-C4B3B9E6889A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37CDC52-F2D1-4B5B-BE21-B86AEAF55A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C0392226-9B29-4FB1-BFA1-4EC6491FC713}"/>
   </bookViews>
@@ -696,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FF810FD-66C8-43B4-B7B1-DBD2A54B69D6}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -748,7 +748,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="3">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="C7" s="3">
         <v>0</v>
@@ -759,12 +759,12 @@
         <v>2</v>
       </c>
       <c r="B8" s="3">
-        <f>B7-((B7^3-B7^2-B7+1)/(3*B7^2-2*B7-1+0))</f>
-        <v>0.8</v>
+        <f>B7-((B7^3-B7^2-B7+1)/(3*(B7^2)-2*B7-1+0))</f>
+        <v>1.8823529411764706</v>
       </c>
       <c r="C8" s="3">
         <f>ABS(B7-B8)</f>
-        <v>0.30000000000000004</v>
+        <v>0.61764705882352944</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -772,12 +772,12 @@
         <v>3</v>
       </c>
       <c r="B9" s="3">
-        <f>B8-((B8^3-B8^2-B8+1)/(3*B8^2-2*B8-1+0))</f>
-        <v>0.90588235294117647</v>
+        <f>B8-((B8^3-B8^2-B8+1)/(3*(B8^2)-2*B8-1+0))</f>
+        <v>1.4997397188964081</v>
       </c>
       <c r="C9" s="3">
         <f>ABS(B8-B9)</f>
-        <v>0.10588235294117643</v>
+        <v>0.38261322228006245</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -785,12 +785,12 @@
         <v>4</v>
       </c>
       <c r="B10" s="3">
-        <f>B9-((B9^3-B9^2-B9+1)/(3*B9^2-2*B9-1+0))</f>
-        <v>0.95413253909158591</v>
+        <f t="shared" ref="B10:B36" si="0">B9-((B9^3-B9^2-B9+1)/(3*(B9^2)-2*B9-1+0))</f>
+        <v>1.2725767001402031</v>
       </c>
       <c r="C10" s="3">
         <f>ABS(B9-B10)</f>
-        <v>4.8250186150409435E-2</v>
+        <v>0.22716301875620504</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -798,12 +798,12 @@
         <v>5</v>
       </c>
       <c r="B11" s="3">
-        <f t="shared" ref="B11:B16" si="0">B10-((B10^3-B10^2-B10+1)/(3*B10^2-2*B10-1+0))</f>
-        <v>0.97733861643736819</v>
+        <f t="shared" si="0"/>
+        <v>1.1439992487620847</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ref="C11:C16" si="1">ABS(B10-B11)</f>
-        <v>2.3206077345782283E-2</v>
+        <v>0.12857745137811838</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -812,11 +812,11 @@
       </c>
       <c r="B12" s="3">
         <f t="shared" si="0"/>
-        <v>0.98873461038488197</v>
+        <v>1.0743389513427291</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" si="1"/>
-        <v>1.1395993947513783E-2</v>
+        <v>6.9660297419355643E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -825,11 +825,11 @@
       </c>
       <c r="B13" s="3">
         <f t="shared" si="0"/>
-        <v>0.99438330399237551</v>
+        <v>1.0378237803873716</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" si="1"/>
-        <v>5.6486936074935379E-3</v>
+        <v>3.6515170955357501E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -838,11 +838,11 @@
       </c>
       <c r="B14" s="3">
         <f t="shared" si="0"/>
-        <v>0.99719561208741569</v>
+        <v>1.019085786915473</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" si="1"/>
-        <v>2.8123080950401835E-3</v>
+        <v>1.8737993471898529E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -851,11 +851,11 @@
       </c>
       <c r="B15" s="3">
         <f t="shared" si="0"/>
-        <v>0.99859879118970385</v>
+        <v>1.0095877842829657</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" si="1"/>
-        <v>1.4031791022881546E-3</v>
+        <v>9.4980026325073297E-3</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -864,11 +864,11 @@
       </c>
       <c r="B16" s="3">
         <f t="shared" si="0"/>
-        <v>0.99929964127630089</v>
+        <v>1.0048053008045654</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" si="1"/>
-        <v>7.0085008659703796E-4</v>
+        <v>4.7824834784002679E-3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -876,12 +876,12 @@
         <v>11</v>
       </c>
       <c r="B17" s="3">
-        <f>B16-((B16^3-B16^2-B16+1)/(3*B16^2-2*B16-1+0))</f>
-        <v>0.99964988198318017</v>
+        <f t="shared" si="0"/>
+        <v>1.0024055264017337</v>
       </c>
       <c r="C17" s="3">
         <f>ABS(B16-B17)</f>
-        <v>3.50240706879279E-4</v>
+        <v>2.3997744028316781E-3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -889,12 +889,12 @@
         <v>12</v>
       </c>
       <c r="B18" s="3">
-        <f>B17-((B17^3-B17^2-B17+1)/(3*B17^2-2*B17-1+0))</f>
-        <v>0.99982495631842083</v>
+        <f t="shared" si="0"/>
+        <v>1.0012034852178995</v>
       </c>
       <c r="C18" s="3">
         <f>ABS(B17-B18)</f>
-        <v>1.7507433524066585E-4</v>
+        <v>1.2020411838342682E-3</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -902,12 +902,12 @@
         <v>13</v>
       </c>
       <c r="B19" s="3">
-        <f>B18-((B18^3-B18^2-B18+1)/(3*B18^2-2*B18-1+0))</f>
-        <v>0.99991248198979854</v>
+        <f t="shared" si="0"/>
+        <v>1.0006019234927672</v>
       </c>
       <c r="C19" s="3">
         <f>ABS(B18-B19)</f>
-        <v>8.7525671377708392E-5</v>
+        <v>6.0156172513226025E-4</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -915,12 +915,12 @@
         <v>14</v>
       </c>
       <c r="B20" s="3">
-        <f t="shared" ref="B20:B21" si="2">B19-((B19^3-B19^2-B19+1)/(3*B19^2-2*B19-1+0))</f>
-        <v>0.99995624195235544</v>
+        <f t="shared" si="0"/>
+        <v>1.0003010070149434</v>
       </c>
       <c r="C20" s="3">
-        <f t="shared" ref="C20:C21" si="3">ABS(B19-B20)</f>
-        <v>4.3759962556899623E-5</v>
+        <f t="shared" ref="C20:C21" si="2">ABS(B19-B20)</f>
+        <v>3.0091647782382047E-4</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -928,12 +928,12 @@
         <v>15</v>
       </c>
       <c r="B21" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0001505148306227</v>
+      </c>
+      <c r="C21" s="3">
         <f t="shared" si="2"/>
-        <v>0.99997812121533369</v>
-      </c>
-      <c r="C21" s="3">
-        <f t="shared" si="3"/>
-        <v>2.1879262978252711E-5</v>
+        <v>1.5049218432072742E-4</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -941,12 +941,12 @@
         <v>16</v>
       </c>
       <c r="B22" s="3">
-        <f>B21-((B21^3-B21^2-B21+1)/(3*B21^2-2*B21-1+0))</f>
-        <v>0.99998906066763427</v>
+        <f t="shared" si="0"/>
+        <v>1.0000752602467893</v>
       </c>
       <c r="C22" s="3">
         <f>ABS(B21-B22)</f>
-        <v>1.0939452300573471E-5</v>
+        <v>7.5254583833395117E-5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -954,12 +954,12 @@
         <v>17</v>
       </c>
       <c r="B23" s="3">
-        <f>B22-((B22^3-B22^2-B22+1)/(3*B22^2-2*B22-1+0))</f>
-        <v>0.9999945303484441</v>
+        <f t="shared" si="0"/>
+        <v>1.0000376308312624</v>
       </c>
       <c r="C23" s="3">
         <f>ABS(B22-B23)</f>
-        <v>5.4696808098331218E-6</v>
+        <v>3.7629415526874155E-5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -967,12 +967,12 @@
         <v>18</v>
       </c>
       <c r="B24" s="3">
-        <f>B23-((B23^3-B23^2-B23+1)/(3*B23^2-2*B23-1+0))</f>
-        <v>0.99999726517860033</v>
+        <f t="shared" si="0"/>
+        <v>1.0000188155924286</v>
       </c>
       <c r="C24" s="3">
         <f>ABS(B23-B24)</f>
-        <v>2.734830156225776E-6</v>
+        <v>1.8815238833846948E-5</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -980,12 +980,12 @@
         <v>19</v>
       </c>
       <c r="B25" s="3">
-        <f t="shared" ref="B25" si="4">B24-((B24^3-B24^2-B24+1)/(3*B24^2-2*B24-1+0))</f>
-        <v>0.99999863259052557</v>
+        <f t="shared" si="0"/>
+        <v>1.0000094078416248</v>
       </c>
       <c r="C25" s="3">
-        <f t="shared" ref="C25" si="5">ABS(B24-B25)</f>
-        <v>1.3674119252460315E-6</v>
+        <f t="shared" ref="C25" si="3">ABS(B24-B25)</f>
+        <v>9.4077508037138102E-6</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -993,12 +993,12 @@
         <v>20</v>
       </c>
       <c r="B26" s="3">
-        <f>B25-((B25^3-B25^2-B25+1)/(3*B25^2-2*B25-1+0))</f>
-        <v>0.99999931628625072</v>
+        <f t="shared" si="0"/>
+        <v>1.000004703933612</v>
       </c>
       <c r="C26" s="3">
         <f>ABS(B25-B26)</f>
-        <v>6.8369572514548338E-7</v>
+        <v>4.7039080128818966E-6</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -1006,12 +1006,12 @@
         <v>21</v>
       </c>
       <c r="B27" s="3">
-        <f>B26-((B26^3-B26^2-B26+1)/(3*B26^2-2*B26-1+0))</f>
-        <v>0.99999965813958103</v>
+        <f t="shared" si="0"/>
+        <v>1.0000023519659067</v>
       </c>
       <c r="C27" s="3">
         <f>ABS(B26-B27)</f>
-        <v>3.4185333031011567E-7</v>
+        <v>2.3519677052608046E-6</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -1019,12 +1019,12 @@
         <v>22</v>
       </c>
       <c r="B28" s="3">
-        <f>B27-((B27^3-B27^2-B27+1)/(3*B27^2-2*B27-1+0))</f>
-        <v>0.99999982904413276</v>
+        <f t="shared" si="0"/>
+        <v>1.0000011759736296</v>
       </c>
       <c r="C28" s="3">
         <f>ABS(B27-B28)</f>
-        <v>1.7090455173285335E-7</v>
+        <v>1.1759922771137354E-6</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -1032,12 +1032,12 @@
         <v>23</v>
       </c>
       <c r="B29" s="3">
-        <f t="shared" ref="B29:B34" si="6">B28-((B28^3-B28^2-B28+1)/(3*B28^2-2*B28-1+0))</f>
-        <v>0.99999991444298375</v>
+        <f t="shared" si="0"/>
+        <v>1.0000005879959126</v>
       </c>
       <c r="C29" s="3">
-        <f t="shared" ref="C29:C36" si="7">ABS(B28-B29)</f>
-        <v>8.5398850990792141E-8</v>
+        <f t="shared" ref="C29:C36" si="4">ABS(B28-B29)</f>
+        <v>5.8797771695928702E-7</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -1045,12 +1045,12 @@
         <v>24</v>
       </c>
       <c r="B30" s="3">
-        <f t="shared" si="6"/>
-        <v>0.99999995726514346</v>
+        <f t="shared" si="0"/>
+        <v>1.0000002940114732</v>
       </c>
       <c r="C30" s="3">
-        <f t="shared" si="7"/>
-        <v>4.2822159707078811E-8</v>
+        <f t="shared" si="4"/>
+        <v>2.939844394589386E-7</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1058,12 +1058,12 @@
         <v>25</v>
       </c>
       <c r="B31" s="3">
-        <f t="shared" si="6"/>
-        <v>0.99999997869809298</v>
+        <f t="shared" si="0"/>
+        <v>1.0000001469315758</v>
       </c>
       <c r="C31" s="3">
-        <f t="shared" si="7"/>
-        <v>2.1432949526278833E-8</v>
+        <f t="shared" si="4"/>
+        <v>1.4707989737239302E-7</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -1071,12 +1071,12 @@
         <v>26</v>
       </c>
       <c r="B32" s="3">
-        <f t="shared" si="6"/>
-        <v>0.99999998912178922</v>
+        <f t="shared" si="0"/>
+        <v>1.0000000736378531</v>
       </c>
       <c r="C32" s="3">
-        <f t="shared" si="7"/>
-        <v>1.0423696239492131E-8</v>
+        <f t="shared" si="4"/>
+        <v>7.3293722646639026E-8</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -1084,12 +1084,12 @@
         <v>27</v>
       </c>
       <c r="B33" s="3">
-        <f t="shared" si="6"/>
-        <v>0.99999999422475638</v>
+        <f t="shared" si="0"/>
+        <v>1.0000000366997004</v>
       </c>
       <c r="C33" s="3">
-        <f t="shared" si="7"/>
-        <v>5.1029671599422954E-9</v>
+        <f t="shared" si="4"/>
+        <v>3.6938152758736464E-8</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -1097,12 +1097,12 @@
         <v>28</v>
       </c>
       <c r="B34" s="3">
-        <f t="shared" si="6"/>
-        <v>0.9999999990307139</v>
+        <f t="shared" si="0"/>
+        <v>1.0000000185487676</v>
       </c>
       <c r="C34" s="3">
-        <f t="shared" si="7"/>
-        <v>4.805957520837012E-9</v>
+        <f t="shared" si="4"/>
+        <v>1.8150932756810789E-8</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -1110,12 +1110,12 @@
         <v>29</v>
       </c>
       <c r="B35" s="3">
-        <f>B34-((B34^3-B34^2-B34+1)/(3*B34^2-2*B34-1+0))</f>
-        <v>0.9999999990307139</v>
+        <f t="shared" si="0"/>
+        <v>1.0000000095706267</v>
       </c>
       <c r="C35" s="3">
         <f>ABS(B34-B35)</f>
-        <v>0</v>
+        <v>8.9781408973976795E-9</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -1123,12 +1123,12 @@
         <v>30</v>
       </c>
       <c r="B36" s="3">
-        <f t="shared" ref="B36" si="8">B35-((B35^3-B35^2-B35+1)/(3*B35^2-2*B35-1+0))</f>
-        <v>0.9999999990307139</v>
+        <f t="shared" si="0"/>
+        <v>1.0000000037704684</v>
       </c>
       <c r="C36" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>5.8001583536082535E-9</v>
       </c>
     </row>
   </sheetData>
